--- a/參數範例資料庫_20230811.xlsx
+++ b/參數範例資料庫_20230811.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows user\PycharmProjects\project_autopacking_20230812\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="參數資料庫" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7908,7 +7908,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Q73" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8549,8 +8549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D739"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -19562,7 +19562,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C744"/>
   <sheetViews>
-    <sheetView topLeftCell="A385" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
       <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>

--- a/參數範例資料庫_20230811.xlsx
+++ b/參數範例資料庫_20230811.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\pycharmproject\project_autopacking_20230812\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows user\PycharmProjects\project_autopacking_20230812\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD0B07C-E188-44AF-9B7E-2B252DA189B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="參數資料庫" sheetId="1" r:id="rId1"/>
@@ -21,9 +20,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">參數資料庫!$A$1:$D$739</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">最小包裝參照!$A$1:$C$744</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="26" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="1444">
   <si>
     <t>part_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4679,13 +4678,24 @@
   </si>
   <si>
     <t>GLS1111FNG-TC2-LS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4G-100</t>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSYM M4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4774,7 +4784,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="windows user" refreshedDate="45152.61870914352" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="744" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="windows user" refreshedDate="45152.61870914352" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="744">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:C1048576" sheet="最小包裝參照"/>
   </cacheSource>
@@ -7863,7 +7873,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Q73" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8504,17 +8514,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D739"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H223" sqref="H223"/>
+    <sheetView tabSelected="1" topLeftCell="A722" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C741" sqref="C741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19503,12 +19513,36 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A740" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C740" t="s">
+        <v>740</v>
+      </c>
+      <c r="D740">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A741" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C741" t="s">
+        <v>783</v>
+      </c>
+      <c r="D741">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D739" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A176:D598">
-      <sortCondition ref="A1:A739"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D739"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19516,11 +19550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C744"/>
   <sheetViews>
-    <sheetView topLeftCell="A611" workbookViewId="0">
+    <sheetView topLeftCell="A250" workbookViewId="0">
       <selection activeCell="B643" sqref="B643"/>
     </sheetView>
   </sheetViews>
@@ -27715,13 +27749,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C744" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:C744">
     <filterColumn colId="1">
       <filters>
         <filter val="TO252"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C744">
+    <sortState ref="A2:C744">
       <sortCondition ref="A1:A744"/>
     </sortState>
   </autoFilter>
@@ -27731,7 +27765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q73"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
